--- a/기획문서/개발일정.xlsx
+++ b/기획문서/개발일정.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="17235" windowHeight="8070"/>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +191,24 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -448,10 +466,79 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,76 +548,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -844,7 +868,7 @@
   <dimension ref="A1:Y558"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F15:F16"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -853,2109 +877,2039 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="1" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="1" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="17"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="19"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="16"/>
     </row>
     <row r="5" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="16"/>
     </row>
     <row r="6" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="16"/>
     </row>
     <row r="7" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="16"/>
     </row>
     <row r="8" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="19"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="16"/>
     </row>
     <row r="9" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="W9" s="16"/>
     </row>
     <row r="10" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="W10" s="16"/>
     </row>
     <row r="11" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="W11" s="16"/>
     </row>
     <row r="12" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="19"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="16"/>
     </row>
     <row r="13" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="W13" s="16"/>
     </row>
     <row r="14" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="19"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="16"/>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="19"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="16"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="26"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="22"/>
     </row>
     <row r="17" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W17" s="7"/>
+      <c r="W17" s="4"/>
     </row>
     <row r="18" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W18" s="7"/>
+      <c r="W18" s="4"/>
     </row>
     <row r="19" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W19" s="7"/>
+      <c r="W19" s="4"/>
     </row>
     <row r="20" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W20" s="7"/>
+      <c r="W20" s="4"/>
     </row>
     <row r="21" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W21" s="7"/>
+      <c r="W21" s="4"/>
     </row>
     <row r="22" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W22" s="7"/>
+      <c r="W22" s="4"/>
     </row>
     <row r="23" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W23" s="7"/>
+      <c r="W23" s="4"/>
     </row>
     <row r="24" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W24" s="7"/>
+      <c r="W24" s="4"/>
     </row>
     <row r="25" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W25" s="7"/>
+      <c r="W25" s="4"/>
     </row>
     <row r="26" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W26" s="7"/>
+      <c r="W26" s="4"/>
     </row>
     <row r="27" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W27" s="7"/>
+      <c r="W27" s="4"/>
     </row>
     <row r="28" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W28" s="7"/>
+      <c r="W28" s="4"/>
     </row>
     <row r="29" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W29" s="7"/>
+      <c r="W29" s="4"/>
     </row>
     <row r="30" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W30" s="7"/>
+      <c r="W30" s="4"/>
     </row>
     <row r="31" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W31" s="7"/>
+      <c r="W31" s="4"/>
     </row>
     <row r="32" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W32" s="7"/>
+      <c r="W32" s="4"/>
     </row>
     <row r="33" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W33" s="7"/>
+      <c r="W33" s="4"/>
     </row>
     <row r="34" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W34" s="7"/>
+      <c r="W34" s="4"/>
     </row>
     <row r="35" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W35" s="7"/>
+      <c r="W35" s="4"/>
     </row>
     <row r="36" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W36" s="7"/>
+      <c r="W36" s="4"/>
     </row>
     <row r="37" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W37" s="7"/>
+      <c r="W37" s="4"/>
     </row>
     <row r="38" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W38" s="7"/>
+      <c r="W38" s="4"/>
     </row>
     <row r="39" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W39" s="7"/>
+      <c r="W39" s="4"/>
     </row>
     <row r="40" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W40" s="7"/>
+      <c r="W40" s="4"/>
     </row>
     <row r="41" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W41" s="7"/>
+      <c r="W41" s="4"/>
     </row>
     <row r="42" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W42" s="7"/>
+      <c r="W42" s="4"/>
     </row>
     <row r="43" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W43" s="7"/>
+      <c r="W43" s="4"/>
     </row>
     <row r="44" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W44" s="7"/>
+      <c r="W44" s="4"/>
     </row>
     <row r="45" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W45" s="7"/>
+      <c r="W45" s="4"/>
     </row>
     <row r="46" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W46" s="7"/>
+      <c r="W46" s="4"/>
     </row>
     <row r="47" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W47" s="7"/>
+      <c r="W47" s="4"/>
     </row>
     <row r="48" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W48" s="7"/>
+      <c r="W48" s="4"/>
     </row>
     <row r="49" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W49" s="7"/>
+      <c r="W49" s="4"/>
     </row>
     <row r="50" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W50" s="7"/>
+      <c r="W50" s="4"/>
     </row>
     <row r="51" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W51" s="7"/>
+      <c r="W51" s="4"/>
     </row>
     <row r="52" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W52" s="7"/>
+      <c r="W52" s="4"/>
     </row>
     <row r="53" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W53" s="7"/>
+      <c r="W53" s="4"/>
     </row>
     <row r="54" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W54" s="7"/>
+      <c r="W54" s="4"/>
     </row>
     <row r="55" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W55" s="7"/>
+      <c r="W55" s="4"/>
     </row>
     <row r="56" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W56" s="7"/>
+      <c r="W56" s="4"/>
     </row>
     <row r="57" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W57" s="7"/>
+      <c r="W57" s="4"/>
     </row>
     <row r="58" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W58" s="7"/>
+      <c r="W58" s="4"/>
     </row>
     <row r="59" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W59" s="7"/>
+      <c r="W59" s="4"/>
     </row>
     <row r="60" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W60" s="7"/>
+      <c r="W60" s="4"/>
     </row>
     <row r="61" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W61" s="7"/>
+      <c r="W61" s="4"/>
     </row>
     <row r="62" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W62" s="7"/>
+      <c r="W62" s="4"/>
     </row>
     <row r="63" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W63" s="7"/>
+      <c r="W63" s="4"/>
     </row>
     <row r="64" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W64" s="7"/>
+      <c r="W64" s="4"/>
     </row>
     <row r="65" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W65" s="7"/>
+      <c r="W65" s="4"/>
     </row>
     <row r="66" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W66" s="7"/>
+      <c r="W66" s="4"/>
     </row>
     <row r="67" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W67" s="7"/>
+      <c r="W67" s="4"/>
     </row>
     <row r="68" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W68" s="7"/>
+      <c r="W68" s="4"/>
     </row>
     <row r="69" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W69" s="7"/>
+      <c r="W69" s="4"/>
     </row>
     <row r="70" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W70" s="7"/>
+      <c r="W70" s="4"/>
     </row>
     <row r="71" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W71" s="7"/>
+      <c r="W71" s="4"/>
     </row>
     <row r="72" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W72" s="7"/>
+      <c r="W72" s="4"/>
     </row>
     <row r="73" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W73" s="7"/>
+      <c r="W73" s="4"/>
     </row>
     <row r="74" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W74" s="7"/>
+      <c r="W74" s="4"/>
     </row>
     <row r="75" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W75" s="7"/>
+      <c r="W75" s="4"/>
     </row>
     <row r="76" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W76" s="7"/>
+      <c r="W76" s="4"/>
     </row>
     <row r="77" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W77" s="7"/>
+      <c r="W77" s="4"/>
     </row>
     <row r="78" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W78" s="7"/>
+      <c r="W78" s="4"/>
     </row>
     <row r="79" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W79" s="7"/>
+      <c r="W79" s="4"/>
     </row>
     <row r="80" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W80" s="7"/>
+      <c r="W80" s="4"/>
     </row>
     <row r="81" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W81" s="7"/>
+      <c r="W81" s="4"/>
     </row>
     <row r="82" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W82" s="7"/>
+      <c r="W82" s="4"/>
     </row>
     <row r="83" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W83" s="7"/>
+      <c r="W83" s="4"/>
     </row>
     <row r="84" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W84" s="7"/>
+      <c r="W84" s="4"/>
     </row>
     <row r="85" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W85" s="7"/>
+      <c r="W85" s="4"/>
     </row>
     <row r="86" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W86" s="7"/>
+      <c r="W86" s="4"/>
     </row>
     <row r="87" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W87" s="7"/>
+      <c r="W87" s="4"/>
     </row>
     <row r="88" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W88" s="7"/>
+      <c r="W88" s="4"/>
     </row>
     <row r="89" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W89" s="7"/>
+      <c r="W89" s="4"/>
     </row>
     <row r="90" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W90" s="7"/>
+      <c r="W90" s="4"/>
     </row>
     <row r="91" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W91" s="7"/>
+      <c r="W91" s="4"/>
     </row>
     <row r="92" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W92" s="7"/>
+      <c r="W92" s="4"/>
     </row>
     <row r="93" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W93" s="7"/>
+      <c r="W93" s="4"/>
     </row>
     <row r="94" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W94" s="7"/>
+      <c r="W94" s="4"/>
     </row>
     <row r="95" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W95" s="7"/>
+      <c r="W95" s="4"/>
     </row>
     <row r="96" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W96" s="7"/>
+      <c r="W96" s="4"/>
     </row>
     <row r="97" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W97" s="7"/>
+      <c r="W97" s="4"/>
     </row>
     <row r="98" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W98" s="7"/>
+      <c r="W98" s="4"/>
     </row>
     <row r="99" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W99" s="7"/>
+      <c r="W99" s="4"/>
     </row>
     <row r="100" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W100" s="7"/>
+      <c r="W100" s="4"/>
     </row>
     <row r="101" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W101" s="7"/>
+      <c r="W101" s="4"/>
     </row>
     <row r="102" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W102" s="7"/>
+      <c r="W102" s="4"/>
     </row>
     <row r="103" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W103" s="7"/>
+      <c r="W103" s="4"/>
     </row>
     <row r="104" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W104" s="7"/>
+      <c r="W104" s="4"/>
     </row>
     <row r="105" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W105" s="7"/>
+      <c r="W105" s="4"/>
     </row>
     <row r="106" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W106" s="7"/>
+      <c r="W106" s="4"/>
     </row>
     <row r="107" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W107" s="7"/>
+      <c r="W107" s="4"/>
     </row>
     <row r="108" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W108" s="7"/>
+      <c r="W108" s="4"/>
     </row>
     <row r="109" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W109" s="7"/>
+      <c r="W109" s="4"/>
     </row>
     <row r="110" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W110" s="7"/>
+      <c r="W110" s="4"/>
     </row>
     <row r="111" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W111" s="7"/>
+      <c r="W111" s="4"/>
     </row>
     <row r="112" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W112" s="7"/>
+      <c r="W112" s="4"/>
     </row>
     <row r="113" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W113" s="7"/>
+      <c r="W113" s="4"/>
     </row>
     <row r="114" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W114" s="7"/>
+      <c r="W114" s="4"/>
     </row>
     <row r="115" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W115" s="7"/>
+      <c r="W115" s="4"/>
     </row>
     <row r="116" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W116" s="7"/>
+      <c r="W116" s="4"/>
     </row>
     <row r="117" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W117" s="7"/>
+      <c r="W117" s="4"/>
     </row>
     <row r="118" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W118" s="7"/>
+      <c r="W118" s="4"/>
     </row>
     <row r="119" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W119" s="7"/>
+      <c r="W119" s="4"/>
     </row>
     <row r="120" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W120" s="7"/>
+      <c r="W120" s="4"/>
     </row>
     <row r="121" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W121" s="7"/>
+      <c r="W121" s="4"/>
     </row>
     <row r="122" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W122" s="7"/>
+      <c r="W122" s="4"/>
     </row>
     <row r="123" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W123" s="7"/>
+      <c r="W123" s="4"/>
     </row>
     <row r="124" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W124" s="7"/>
+      <c r="W124" s="4"/>
     </row>
     <row r="125" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W125" s="7"/>
+      <c r="W125" s="4"/>
     </row>
     <row r="126" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W126" s="7"/>
+      <c r="W126" s="4"/>
     </row>
     <row r="127" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W127" s="7"/>
+      <c r="W127" s="4"/>
     </row>
     <row r="128" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W128" s="7"/>
+      <c r="W128" s="4"/>
     </row>
     <row r="129" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W129" s="7"/>
+      <c r="W129" s="4"/>
     </row>
     <row r="130" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W130" s="7"/>
+      <c r="W130" s="4"/>
     </row>
     <row r="131" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W131" s="7"/>
+      <c r="W131" s="4"/>
     </row>
     <row r="132" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W132" s="7"/>
+      <c r="W132" s="4"/>
     </row>
     <row r="133" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W133" s="7"/>
+      <c r="W133" s="4"/>
     </row>
     <row r="134" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W134" s="7"/>
+      <c r="W134" s="4"/>
     </row>
     <row r="135" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W135" s="7"/>
+      <c r="W135" s="4"/>
     </row>
     <row r="136" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W136" s="7"/>
+      <c r="W136" s="4"/>
     </row>
     <row r="137" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W137" s="7"/>
+      <c r="W137" s="4"/>
     </row>
     <row r="138" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W138" s="7"/>
+      <c r="W138" s="4"/>
     </row>
     <row r="139" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W139" s="7"/>
+      <c r="W139" s="4"/>
     </row>
     <row r="140" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W140" s="7"/>
+      <c r="W140" s="4"/>
     </row>
     <row r="141" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W141" s="7"/>
+      <c r="W141" s="4"/>
     </row>
     <row r="142" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W142" s="7"/>
+      <c r="W142" s="4"/>
     </row>
     <row r="143" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W143" s="7"/>
+      <c r="W143" s="4"/>
     </row>
     <row r="144" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W144" s="7"/>
+      <c r="W144" s="4"/>
     </row>
     <row r="145" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W145" s="7"/>
+      <c r="W145" s="4"/>
     </row>
     <row r="146" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W146" s="7"/>
+      <c r="W146" s="4"/>
     </row>
     <row r="147" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W147" s="7"/>
+      <c r="W147" s="4"/>
     </row>
     <row r="148" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W148" s="7"/>
+      <c r="W148" s="4"/>
     </row>
     <row r="149" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W149" s="7"/>
+      <c r="W149" s="4"/>
     </row>
     <row r="150" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W150" s="7"/>
+      <c r="W150" s="4"/>
     </row>
     <row r="151" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W151" s="7"/>
+      <c r="W151" s="4"/>
     </row>
     <row r="152" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W152" s="7"/>
+      <c r="W152" s="4"/>
     </row>
     <row r="153" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W153" s="7"/>
+      <c r="W153" s="4"/>
     </row>
     <row r="154" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W154" s="7"/>
+      <c r="W154" s="4"/>
     </row>
     <row r="155" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W155" s="7"/>
+      <c r="W155" s="4"/>
     </row>
     <row r="156" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W156" s="7"/>
+      <c r="W156" s="4"/>
     </row>
     <row r="157" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W157" s="7"/>
+      <c r="W157" s="4"/>
     </row>
     <row r="158" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W158" s="7"/>
+      <c r="W158" s="4"/>
     </row>
     <row r="159" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W159" s="7"/>
+      <c r="W159" s="4"/>
     </row>
     <row r="160" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W160" s="7"/>
+      <c r="W160" s="4"/>
     </row>
     <row r="161" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W161" s="7"/>
+      <c r="W161" s="4"/>
     </row>
     <row r="162" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W162" s="7"/>
+      <c r="W162" s="4"/>
     </row>
     <row r="163" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W163" s="7"/>
+      <c r="W163" s="4"/>
     </row>
     <row r="164" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W164" s="7"/>
+      <c r="W164" s="4"/>
     </row>
     <row r="165" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W165" s="7"/>
+      <c r="W165" s="4"/>
     </row>
     <row r="166" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W166" s="7"/>
+      <c r="W166" s="4"/>
     </row>
     <row r="167" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W167" s="7"/>
+      <c r="W167" s="4"/>
     </row>
     <row r="168" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W168" s="7"/>
+      <c r="W168" s="4"/>
     </row>
     <row r="169" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W169" s="7"/>
+      <c r="W169" s="4"/>
     </row>
     <row r="170" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W170" s="7"/>
+      <c r="W170" s="4"/>
     </row>
     <row r="171" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W171" s="7"/>
+      <c r="W171" s="4"/>
     </row>
     <row r="172" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W172" s="7"/>
+      <c r="W172" s="4"/>
     </row>
     <row r="173" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W173" s="7"/>
+      <c r="W173" s="4"/>
     </row>
     <row r="174" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W174" s="7"/>
+      <c r="W174" s="4"/>
     </row>
     <row r="175" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W175" s="7"/>
+      <c r="W175" s="4"/>
     </row>
     <row r="176" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W176" s="7"/>
+      <c r="W176" s="4"/>
     </row>
     <row r="177" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W177" s="7"/>
+      <c r="W177" s="4"/>
     </row>
     <row r="178" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W178" s="7"/>
+      <c r="W178" s="4"/>
     </row>
     <row r="179" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W179" s="7"/>
+      <c r="W179" s="4"/>
     </row>
     <row r="180" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W180" s="7"/>
+      <c r="W180" s="4"/>
     </row>
     <row r="181" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W181" s="7"/>
+      <c r="W181" s="4"/>
     </row>
     <row r="182" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W182" s="7"/>
+      <c r="W182" s="4"/>
     </row>
     <row r="183" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W183" s="7"/>
+      <c r="W183" s="4"/>
     </row>
     <row r="184" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W184" s="7"/>
+      <c r="W184" s="4"/>
     </row>
     <row r="185" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W185" s="7"/>
+      <c r="W185" s="4"/>
     </row>
     <row r="186" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W186" s="7"/>
+      <c r="W186" s="4"/>
     </row>
     <row r="187" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W187" s="7"/>
+      <c r="W187" s="4"/>
     </row>
     <row r="188" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W188" s="7"/>
+      <c r="W188" s="4"/>
     </row>
     <row r="189" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W189" s="7"/>
+      <c r="W189" s="4"/>
     </row>
     <row r="190" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W190" s="7"/>
+      <c r="W190" s="4"/>
     </row>
     <row r="191" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W191" s="7"/>
+      <c r="W191" s="4"/>
     </row>
     <row r="192" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W192" s="7"/>
+      <c r="W192" s="4"/>
     </row>
     <row r="193" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W193" s="7"/>
+      <c r="W193" s="4"/>
     </row>
     <row r="194" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W194" s="7"/>
+      <c r="W194" s="4"/>
     </row>
     <row r="195" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W195" s="7"/>
+      <c r="W195" s="4"/>
     </row>
     <row r="196" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W196" s="7"/>
+      <c r="W196" s="4"/>
     </row>
     <row r="197" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W197" s="7"/>
+      <c r="W197" s="4"/>
     </row>
     <row r="198" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W198" s="7"/>
+      <c r="W198" s="4"/>
     </row>
     <row r="199" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W199" s="7"/>
+      <c r="W199" s="4"/>
     </row>
     <row r="200" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W200" s="7"/>
+      <c r="W200" s="4"/>
     </row>
     <row r="201" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W201" s="7"/>
+      <c r="W201" s="4"/>
     </row>
     <row r="202" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W202" s="7"/>
+      <c r="W202" s="4"/>
     </row>
     <row r="203" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W203" s="7"/>
+      <c r="W203" s="4"/>
     </row>
     <row r="204" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W204" s="7"/>
+      <c r="W204" s="4"/>
     </row>
     <row r="205" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W205" s="7"/>
+      <c r="W205" s="4"/>
     </row>
     <row r="206" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W206" s="7"/>
+      <c r="W206" s="4"/>
     </row>
     <row r="207" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W207" s="7"/>
+      <c r="W207" s="4"/>
     </row>
     <row r="208" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W208" s="7"/>
+      <c r="W208" s="4"/>
     </row>
     <row r="209" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W209" s="7"/>
+      <c r="W209" s="4"/>
     </row>
     <row r="210" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W210" s="7"/>
+      <c r="W210" s="4"/>
     </row>
     <row r="211" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W211" s="7"/>
+      <c r="W211" s="4"/>
     </row>
     <row r="212" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W212" s="7"/>
+      <c r="W212" s="4"/>
     </row>
     <row r="213" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W213" s="7"/>
+      <c r="W213" s="4"/>
     </row>
     <row r="214" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W214" s="7"/>
+      <c r="W214" s="4"/>
     </row>
     <row r="215" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W215" s="7"/>
+      <c r="W215" s="4"/>
     </row>
     <row r="216" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W216" s="7"/>
+      <c r="W216" s="4"/>
     </row>
     <row r="217" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W217" s="7"/>
+      <c r="W217" s="4"/>
     </row>
     <row r="218" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W218" s="7"/>
+      <c r="W218" s="4"/>
     </row>
     <row r="219" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W219" s="7"/>
+      <c r="W219" s="4"/>
     </row>
     <row r="220" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W220" s="7"/>
+      <c r="W220" s="4"/>
     </row>
     <row r="221" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W221" s="7"/>
+      <c r="W221" s="4"/>
     </row>
     <row r="222" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W222" s="7"/>
+      <c r="W222" s="4"/>
     </row>
     <row r="223" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W223" s="7"/>
+      <c r="W223" s="4"/>
     </row>
     <row r="224" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W224" s="7"/>
+      <c r="W224" s="4"/>
     </row>
     <row r="225" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W225" s="7"/>
+      <c r="W225" s="4"/>
     </row>
     <row r="226" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W226" s="7"/>
+      <c r="W226" s="4"/>
     </row>
     <row r="227" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W227" s="7"/>
+      <c r="W227" s="4"/>
     </row>
     <row r="228" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W228" s="7"/>
+      <c r="W228" s="4"/>
     </row>
     <row r="229" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W229" s="7"/>
+      <c r="W229" s="4"/>
     </row>
     <row r="230" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W230" s="7"/>
+      <c r="W230" s="4"/>
     </row>
     <row r="231" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W231" s="7"/>
+      <c r="W231" s="4"/>
     </row>
     <row r="232" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W232" s="7"/>
+      <c r="W232" s="4"/>
     </row>
     <row r="233" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W233" s="7"/>
+      <c r="W233" s="4"/>
     </row>
     <row r="234" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W234" s="7"/>
+      <c r="W234" s="4"/>
     </row>
     <row r="235" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W235" s="7"/>
+      <c r="W235" s="4"/>
     </row>
     <row r="236" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W236" s="7"/>
+      <c r="W236" s="4"/>
     </row>
     <row r="237" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W237" s="7"/>
+      <c r="W237" s="4"/>
     </row>
     <row r="238" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W238" s="7"/>
+      <c r="W238" s="4"/>
     </row>
     <row r="239" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W239" s="7"/>
+      <c r="W239" s="4"/>
     </row>
     <row r="240" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W240" s="7"/>
+      <c r="W240" s="4"/>
     </row>
     <row r="241" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W241" s="7"/>
+      <c r="W241" s="4"/>
     </row>
     <row r="242" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W242" s="7"/>
+      <c r="W242" s="4"/>
     </row>
     <row r="243" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W243" s="7"/>
+      <c r="W243" s="4"/>
     </row>
     <row r="244" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W244" s="7"/>
+      <c r="W244" s="4"/>
     </row>
     <row r="245" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W245" s="7"/>
+      <c r="W245" s="4"/>
     </row>
     <row r="246" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W246" s="7"/>
+      <c r="W246" s="4"/>
     </row>
     <row r="247" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W247" s="7"/>
+      <c r="W247" s="4"/>
     </row>
     <row r="248" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W248" s="7"/>
+      <c r="W248" s="4"/>
     </row>
     <row r="249" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W249" s="7"/>
+      <c r="W249" s="4"/>
     </row>
     <row r="250" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W250" s="7"/>
+      <c r="W250" s="4"/>
     </row>
     <row r="251" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W251" s="7"/>
+      <c r="W251" s="4"/>
     </row>
     <row r="252" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W252" s="7"/>
+      <c r="W252" s="4"/>
     </row>
     <row r="253" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W253" s="7"/>
+      <c r="W253" s="4"/>
     </row>
     <row r="254" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W254" s="7"/>
+      <c r="W254" s="4"/>
     </row>
     <row r="255" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W255" s="7"/>
+      <c r="W255" s="4"/>
     </row>
     <row r="256" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W256" s="7"/>
+      <c r="W256" s="4"/>
     </row>
     <row r="257" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W257" s="7"/>
+      <c r="W257" s="4"/>
     </row>
     <row r="258" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W258" s="7"/>
+      <c r="W258" s="4"/>
     </row>
     <row r="259" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W259" s="7"/>
+      <c r="W259" s="4"/>
     </row>
     <row r="260" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W260" s="7"/>
+      <c r="W260" s="4"/>
     </row>
     <row r="261" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W261" s="7"/>
+      <c r="W261" s="4"/>
     </row>
     <row r="262" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W262" s="7"/>
+      <c r="W262" s="4"/>
     </row>
     <row r="263" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W263" s="7"/>
+      <c r="W263" s="4"/>
     </row>
     <row r="264" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W264" s="7"/>
+      <c r="W264" s="4"/>
     </row>
     <row r="265" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W265" s="7"/>
+      <c r="W265" s="4"/>
     </row>
     <row r="266" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W266" s="7"/>
+      <c r="W266" s="4"/>
     </row>
     <row r="267" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W267" s="7"/>
+      <c r="W267" s="4"/>
     </row>
     <row r="268" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W268" s="7"/>
+      <c r="W268" s="4"/>
     </row>
     <row r="269" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W269" s="7"/>
+      <c r="W269" s="4"/>
     </row>
     <row r="270" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W270" s="7"/>
+      <c r="W270" s="4"/>
     </row>
     <row r="271" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W271" s="7"/>
+      <c r="W271" s="4"/>
     </row>
     <row r="272" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W272" s="7"/>
+      <c r="W272" s="4"/>
     </row>
     <row r="273" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W273" s="7"/>
+      <c r="W273" s="4"/>
     </row>
     <row r="274" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W274" s="7"/>
+      <c r="W274" s="4"/>
     </row>
     <row r="275" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W275" s="7"/>
+      <c r="W275" s="4"/>
     </row>
     <row r="276" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W276" s="7"/>
+      <c r="W276" s="4"/>
     </row>
     <row r="277" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W277" s="7"/>
+      <c r="W277" s="4"/>
     </row>
     <row r="278" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W278" s="7"/>
+      <c r="W278" s="4"/>
     </row>
     <row r="279" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W279" s="7"/>
+      <c r="W279" s="4"/>
     </row>
     <row r="280" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W280" s="7"/>
+      <c r="W280" s="4"/>
     </row>
     <row r="281" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W281" s="7"/>
+      <c r="W281" s="4"/>
     </row>
     <row r="282" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W282" s="7"/>
+      <c r="W282" s="4"/>
     </row>
     <row r="283" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W283" s="7"/>
+      <c r="W283" s="4"/>
     </row>
     <row r="284" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W284" s="7"/>
+      <c r="W284" s="4"/>
     </row>
     <row r="285" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W285" s="7"/>
+      <c r="W285" s="4"/>
     </row>
     <row r="286" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W286" s="7"/>
+      <c r="W286" s="4"/>
     </row>
     <row r="287" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W287" s="7"/>
+      <c r="W287" s="4"/>
     </row>
     <row r="288" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W288" s="7"/>
+      <c r="W288" s="4"/>
     </row>
     <row r="289" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W289" s="7"/>
+      <c r="W289" s="4"/>
     </row>
     <row r="290" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W290" s="7"/>
+      <c r="W290" s="4"/>
     </row>
     <row r="291" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W291" s="7"/>
+      <c r="W291" s="4"/>
     </row>
     <row r="292" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W292" s="7"/>
+      <c r="W292" s="4"/>
     </row>
     <row r="293" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W293" s="7"/>
+      <c r="W293" s="4"/>
     </row>
     <row r="294" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W294" s="7"/>
+      <c r="W294" s="4"/>
     </row>
     <row r="295" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W295" s="7"/>
+      <c r="W295" s="4"/>
     </row>
     <row r="296" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W296" s="7"/>
+      <c r="W296" s="4"/>
     </row>
     <row r="297" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W297" s="7"/>
+      <c r="W297" s="4"/>
     </row>
     <row r="298" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W298" s="7"/>
+      <c r="W298" s="4"/>
     </row>
     <row r="299" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W299" s="7"/>
+      <c r="W299" s="4"/>
     </row>
     <row r="300" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W300" s="7"/>
+      <c r="W300" s="4"/>
     </row>
     <row r="301" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W301" s="7"/>
+      <c r="W301" s="4"/>
     </row>
     <row r="302" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W302" s="7"/>
+      <c r="W302" s="4"/>
     </row>
     <row r="303" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W303" s="7"/>
+      <c r="W303" s="4"/>
     </row>
     <row r="304" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W304" s="7"/>
+      <c r="W304" s="4"/>
     </row>
     <row r="305" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W305" s="7"/>
+      <c r="W305" s="4"/>
     </row>
     <row r="306" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W306" s="7"/>
+      <c r="W306" s="4"/>
     </row>
     <row r="307" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W307" s="7"/>
+      <c r="W307" s="4"/>
     </row>
     <row r="308" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W308" s="7"/>
+      <c r="W308" s="4"/>
     </row>
     <row r="309" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W309" s="7"/>
+      <c r="W309" s="4"/>
     </row>
     <row r="310" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W310" s="7"/>
+      <c r="W310" s="4"/>
     </row>
     <row r="311" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W311" s="7"/>
+      <c r="W311" s="4"/>
     </row>
     <row r="312" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W312" s="7"/>
+      <c r="W312" s="4"/>
     </row>
     <row r="313" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W313" s="7"/>
+      <c r="W313" s="4"/>
     </row>
     <row r="314" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W314" s="7"/>
+      <c r="W314" s="4"/>
     </row>
     <row r="315" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W315" s="7"/>
+      <c r="W315" s="4"/>
     </row>
     <row r="316" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W316" s="7"/>
+      <c r="W316" s="4"/>
     </row>
     <row r="317" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W317" s="7"/>
+      <c r="W317" s="4"/>
     </row>
     <row r="318" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W318" s="7"/>
+      <c r="W318" s="4"/>
     </row>
     <row r="319" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W319" s="7"/>
+      <c r="W319" s="4"/>
     </row>
     <row r="320" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W320" s="7"/>
+      <c r="W320" s="4"/>
     </row>
     <row r="321" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W321" s="7"/>
+      <c r="W321" s="4"/>
     </row>
     <row r="322" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W322" s="7"/>
+      <c r="W322" s="4"/>
     </row>
     <row r="323" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W323" s="7"/>
+      <c r="W323" s="4"/>
     </row>
     <row r="324" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W324" s="7"/>
+      <c r="W324" s="4"/>
     </row>
     <row r="325" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W325" s="7"/>
+      <c r="W325" s="4"/>
     </row>
     <row r="326" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W326" s="7"/>
+      <c r="W326" s="4"/>
     </row>
     <row r="327" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W327" s="7"/>
+      <c r="W327" s="4"/>
     </row>
     <row r="328" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W328" s="7"/>
+      <c r="W328" s="4"/>
     </row>
     <row r="329" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W329" s="7"/>
+      <c r="W329" s="4"/>
     </row>
     <row r="330" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W330" s="7"/>
+      <c r="W330" s="4"/>
     </row>
     <row r="331" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W331" s="7"/>
+      <c r="W331" s="4"/>
     </row>
     <row r="332" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W332" s="7"/>
+      <c r="W332" s="4"/>
     </row>
     <row r="333" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W333" s="7"/>
+      <c r="W333" s="4"/>
     </row>
     <row r="334" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W334" s="7"/>
+      <c r="W334" s="4"/>
     </row>
     <row r="335" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W335" s="7"/>
+      <c r="W335" s="4"/>
     </row>
     <row r="336" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W336" s="7"/>
+      <c r="W336" s="4"/>
     </row>
     <row r="337" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W337" s="7"/>
+      <c r="W337" s="4"/>
     </row>
     <row r="338" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W338" s="7"/>
+      <c r="W338" s="4"/>
     </row>
     <row r="339" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W339" s="7"/>
+      <c r="W339" s="4"/>
     </row>
     <row r="340" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W340" s="7"/>
+      <c r="W340" s="4"/>
     </row>
     <row r="341" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W341" s="7"/>
+      <c r="W341" s="4"/>
     </row>
     <row r="342" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W342" s="7"/>
+      <c r="W342" s="4"/>
     </row>
     <row r="343" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W343" s="7"/>
+      <c r="W343" s="4"/>
     </row>
     <row r="344" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W344" s="7"/>
+      <c r="W344" s="4"/>
     </row>
     <row r="345" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W345" s="7"/>
+      <c r="W345" s="4"/>
     </row>
     <row r="346" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W346" s="7"/>
+      <c r="W346" s="4"/>
     </row>
     <row r="347" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W347" s="7"/>
+      <c r="W347" s="4"/>
     </row>
     <row r="348" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W348" s="7"/>
+      <c r="W348" s="4"/>
     </row>
     <row r="349" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W349" s="7"/>
+      <c r="W349" s="4"/>
     </row>
     <row r="350" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W350" s="7"/>
+      <c r="W350" s="4"/>
     </row>
     <row r="351" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W351" s="7"/>
+      <c r="W351" s="4"/>
     </row>
     <row r="352" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W352" s="7"/>
+      <c r="W352" s="4"/>
     </row>
     <row r="353" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W353" s="7"/>
+      <c r="W353" s="4"/>
     </row>
     <row r="354" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W354" s="7"/>
+      <c r="W354" s="4"/>
     </row>
     <row r="355" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W355" s="7"/>
+      <c r="W355" s="4"/>
     </row>
     <row r="356" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W356" s="7"/>
+      <c r="W356" s="4"/>
     </row>
     <row r="357" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W357" s="7"/>
+      <c r="W357" s="4"/>
     </row>
     <row r="358" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W358" s="7"/>
+      <c r="W358" s="4"/>
     </row>
     <row r="359" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W359" s="7"/>
+      <c r="W359" s="4"/>
     </row>
     <row r="360" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W360" s="7"/>
+      <c r="W360" s="4"/>
     </row>
     <row r="361" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W361" s="7"/>
+      <c r="W361" s="4"/>
     </row>
     <row r="362" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W362" s="7"/>
+      <c r="W362" s="4"/>
     </row>
     <row r="363" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W363" s="7"/>
+      <c r="W363" s="4"/>
     </row>
     <row r="364" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W364" s="7"/>
+      <c r="W364" s="4"/>
     </row>
     <row r="365" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W365" s="7"/>
+      <c r="W365" s="4"/>
     </row>
     <row r="366" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W366" s="7"/>
+      <c r="W366" s="4"/>
     </row>
     <row r="367" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W367" s="7"/>
+      <c r="W367" s="4"/>
     </row>
     <row r="368" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W368" s="7"/>
+      <c r="W368" s="4"/>
     </row>
     <row r="369" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W369" s="7"/>
+      <c r="W369" s="4"/>
     </row>
     <row r="370" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W370" s="7"/>
+      <c r="W370" s="4"/>
     </row>
     <row r="371" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W371" s="7"/>
+      <c r="W371" s="4"/>
     </row>
     <row r="372" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W372" s="7"/>
+      <c r="W372" s="4"/>
     </row>
     <row r="373" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W373" s="7"/>
+      <c r="W373" s="4"/>
     </row>
     <row r="374" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W374" s="7"/>
+      <c r="W374" s="4"/>
     </row>
     <row r="375" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W375" s="7"/>
+      <c r="W375" s="4"/>
     </row>
     <row r="376" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W376" s="7"/>
+      <c r="W376" s="4"/>
     </row>
     <row r="377" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W377" s="7"/>
+      <c r="W377" s="4"/>
     </row>
     <row r="378" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W378" s="7"/>
+      <c r="W378" s="4"/>
     </row>
     <row r="379" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W379" s="7"/>
+      <c r="W379" s="4"/>
     </row>
     <row r="380" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W380" s="7"/>
+      <c r="W380" s="4"/>
     </row>
     <row r="381" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W381" s="7"/>
+      <c r="W381" s="4"/>
     </row>
     <row r="382" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W382" s="7"/>
+      <c r="W382" s="4"/>
     </row>
     <row r="383" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W383" s="7"/>
+      <c r="W383" s="4"/>
     </row>
     <row r="384" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W384" s="7"/>
+      <c r="W384" s="4"/>
     </row>
     <row r="385" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W385" s="7"/>
+      <c r="W385" s="4"/>
     </row>
     <row r="386" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W386" s="7"/>
+      <c r="W386" s="4"/>
     </row>
     <row r="387" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W387" s="7"/>
+      <c r="W387" s="4"/>
     </row>
     <row r="388" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W388" s="7"/>
+      <c r="W388" s="4"/>
     </row>
     <row r="389" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W389" s="7"/>
+      <c r="W389" s="4"/>
     </row>
     <row r="390" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W390" s="7"/>
+      <c r="W390" s="4"/>
     </row>
     <row r="391" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W391" s="7"/>
+      <c r="W391" s="4"/>
     </row>
     <row r="392" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W392" s="7"/>
+      <c r="W392" s="4"/>
     </row>
     <row r="393" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W393" s="7"/>
+      <c r="W393" s="4"/>
     </row>
     <row r="394" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W394" s="7"/>
+      <c r="W394" s="4"/>
     </row>
     <row r="395" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W395" s="7"/>
+      <c r="W395" s="4"/>
     </row>
     <row r="396" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W396" s="7"/>
+      <c r="W396" s="4"/>
     </row>
     <row r="397" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W397" s="7"/>
+      <c r="W397" s="4"/>
     </row>
     <row r="398" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W398" s="7"/>
+      <c r="W398" s="4"/>
     </row>
     <row r="399" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W399" s="7"/>
+      <c r="W399" s="4"/>
     </row>
     <row r="400" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W400" s="7"/>
+      <c r="W400" s="4"/>
     </row>
     <row r="401" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W401" s="7"/>
+      <c r="W401" s="4"/>
     </row>
     <row r="402" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W402" s="7"/>
+      <c r="W402" s="4"/>
     </row>
     <row r="403" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W403" s="7"/>
+      <c r="W403" s="4"/>
     </row>
     <row r="404" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W404" s="7"/>
+      <c r="W404" s="4"/>
     </row>
     <row r="405" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W405" s="7"/>
+      <c r="W405" s="4"/>
     </row>
     <row r="406" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W406" s="7"/>
+      <c r="W406" s="4"/>
     </row>
     <row r="407" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W407" s="7"/>
+      <c r="W407" s="4"/>
     </row>
     <row r="408" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W408" s="7"/>
+      <c r="W408" s="4"/>
     </row>
     <row r="409" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W409" s="7"/>
+      <c r="W409" s="4"/>
     </row>
     <row r="410" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W410" s="7"/>
+      <c r="W410" s="4"/>
     </row>
     <row r="411" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W411" s="7"/>
+      <c r="W411" s="4"/>
     </row>
     <row r="412" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W412" s="7"/>
+      <c r="W412" s="4"/>
     </row>
     <row r="413" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W413" s="7"/>
+      <c r="W413" s="4"/>
     </row>
     <row r="414" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W414" s="7"/>
+      <c r="W414" s="4"/>
     </row>
     <row r="415" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W415" s="7"/>
+      <c r="W415" s="4"/>
     </row>
     <row r="416" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W416" s="7"/>
+      <c r="W416" s="4"/>
     </row>
     <row r="417" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W417" s="7"/>
+      <c r="W417" s="4"/>
     </row>
     <row r="418" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W418" s="7"/>
+      <c r="W418" s="4"/>
     </row>
     <row r="419" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W419" s="7"/>
+      <c r="W419" s="4"/>
     </row>
     <row r="420" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W420" s="7"/>
+      <c r="W420" s="4"/>
     </row>
     <row r="421" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W421" s="7"/>
+      <c r="W421" s="4"/>
     </row>
     <row r="422" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W422" s="7"/>
+      <c r="W422" s="4"/>
     </row>
     <row r="423" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W423" s="7"/>
+      <c r="W423" s="4"/>
     </row>
     <row r="424" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W424" s="7"/>
+      <c r="W424" s="4"/>
     </row>
     <row r="425" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W425" s="7"/>
+      <c r="W425" s="4"/>
     </row>
     <row r="426" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W426" s="7"/>
+      <c r="W426" s="4"/>
     </row>
     <row r="427" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W427" s="7"/>
+      <c r="W427" s="4"/>
     </row>
     <row r="428" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W428" s="7"/>
+      <c r="W428" s="4"/>
     </row>
     <row r="429" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W429" s="7"/>
+      <c r="W429" s="4"/>
     </row>
     <row r="430" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W430" s="7"/>
+      <c r="W430" s="4"/>
     </row>
     <row r="431" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W431" s="7"/>
+      <c r="W431" s="4"/>
     </row>
     <row r="432" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W432" s="7"/>
+      <c r="W432" s="4"/>
     </row>
     <row r="433" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W433" s="7"/>
+      <c r="W433" s="4"/>
     </row>
     <row r="434" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W434" s="7"/>
+      <c r="W434" s="4"/>
     </row>
     <row r="435" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W435" s="7"/>
+      <c r="W435" s="4"/>
     </row>
     <row r="436" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W436" s="7"/>
+      <c r="W436" s="4"/>
     </row>
     <row r="437" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W437" s="7"/>
+      <c r="W437" s="4"/>
     </row>
     <row r="438" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W438" s="7"/>
+      <c r="W438" s="4"/>
     </row>
     <row r="439" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W439" s="7"/>
+      <c r="W439" s="4"/>
     </row>
     <row r="440" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W440" s="7"/>
+      <c r="W440" s="4"/>
     </row>
     <row r="441" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W441" s="7"/>
+      <c r="W441" s="4"/>
     </row>
     <row r="442" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W442" s="7"/>
+      <c r="W442" s="4"/>
     </row>
     <row r="443" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W443" s="7"/>
+      <c r="W443" s="4"/>
     </row>
     <row r="444" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W444" s="7"/>
+      <c r="W444" s="4"/>
     </row>
     <row r="445" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W445" s="7"/>
+      <c r="W445" s="4"/>
     </row>
     <row r="446" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W446" s="7"/>
+      <c r="W446" s="4"/>
     </row>
     <row r="447" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W447" s="7"/>
+      <c r="W447" s="4"/>
     </row>
     <row r="448" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W448" s="7"/>
+      <c r="W448" s="4"/>
     </row>
     <row r="449" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W449" s="7"/>
+      <c r="W449" s="4"/>
     </row>
     <row r="450" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W450" s="7"/>
+      <c r="W450" s="4"/>
     </row>
     <row r="451" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W451" s="7"/>
+      <c r="W451" s="4"/>
     </row>
     <row r="452" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W452" s="7"/>
+      <c r="W452" s="4"/>
     </row>
     <row r="453" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W453" s="7"/>
+      <c r="W453" s="4"/>
     </row>
     <row r="454" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W454" s="7"/>
+      <c r="W454" s="4"/>
     </row>
     <row r="455" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W455" s="7"/>
+      <c r="W455" s="4"/>
     </row>
     <row r="456" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W456" s="7"/>
+      <c r="W456" s="4"/>
     </row>
     <row r="457" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W457" s="7"/>
+      <c r="W457" s="4"/>
     </row>
     <row r="458" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W458" s="7"/>
+      <c r="W458" s="4"/>
     </row>
     <row r="459" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W459" s="7"/>
+      <c r="W459" s="4"/>
     </row>
     <row r="460" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W460" s="7"/>
+      <c r="W460" s="4"/>
     </row>
     <row r="461" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W461" s="7"/>
+      <c r="W461" s="4"/>
     </row>
     <row r="462" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W462" s="7"/>
+      <c r="W462" s="4"/>
     </row>
     <row r="463" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W463" s="7"/>
+      <c r="W463" s="4"/>
     </row>
     <row r="464" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W464" s="7"/>
+      <c r="W464" s="4"/>
     </row>
     <row r="465" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W465" s="7"/>
+      <c r="W465" s="4"/>
     </row>
     <row r="466" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W466" s="7"/>
+      <c r="W466" s="4"/>
     </row>
     <row r="467" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W467" s="7"/>
+      <c r="W467" s="4"/>
     </row>
     <row r="468" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W468" s="7"/>
+      <c r="W468" s="4"/>
     </row>
     <row r="469" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W469" s="7"/>
+      <c r="W469" s="4"/>
     </row>
     <row r="470" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W470" s="7"/>
+      <c r="W470" s="4"/>
     </row>
     <row r="471" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W471" s="7"/>
+      <c r="W471" s="4"/>
     </row>
     <row r="472" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W472" s="7"/>
+      <c r="W472" s="4"/>
     </row>
     <row r="473" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W473" s="7"/>
+      <c r="W473" s="4"/>
     </row>
     <row r="474" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W474" s="7"/>
+      <c r="W474" s="4"/>
     </row>
     <row r="475" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W475" s="7"/>
+      <c r="W475" s="4"/>
     </row>
     <row r="476" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W476" s="7"/>
+      <c r="W476" s="4"/>
     </row>
     <row r="477" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W477" s="7"/>
+      <c r="W477" s="4"/>
     </row>
     <row r="478" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W478" s="7"/>
+      <c r="W478" s="4"/>
     </row>
     <row r="479" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W479" s="7"/>
+      <c r="W479" s="4"/>
     </row>
     <row r="480" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W480" s="7"/>
+      <c r="W480" s="4"/>
     </row>
     <row r="481" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W481" s="7"/>
+      <c r="W481" s="4"/>
     </row>
     <row r="482" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W482" s="7"/>
+      <c r="W482" s="4"/>
     </row>
     <row r="483" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W483" s="7"/>
+      <c r="W483" s="4"/>
     </row>
     <row r="484" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W484" s="7"/>
+      <c r="W484" s="4"/>
     </row>
     <row r="485" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W485" s="7"/>
+      <c r="W485" s="4"/>
     </row>
     <row r="486" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W486" s="7"/>
+      <c r="W486" s="4"/>
     </row>
     <row r="487" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W487" s="7"/>
+      <c r="W487" s="4"/>
     </row>
     <row r="488" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W488" s="7"/>
+      <c r="W488" s="4"/>
     </row>
     <row r="489" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W489" s="7"/>
+      <c r="W489" s="4"/>
     </row>
     <row r="490" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W490" s="7"/>
+      <c r="W490" s="4"/>
     </row>
     <row r="491" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W491" s="7"/>
+      <c r="W491" s="4"/>
     </row>
     <row r="492" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W492" s="7"/>
+      <c r="W492" s="4"/>
     </row>
     <row r="493" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W493" s="7"/>
+      <c r="W493" s="4"/>
     </row>
     <row r="494" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W494" s="7"/>
+      <c r="W494" s="4"/>
     </row>
     <row r="495" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W495" s="7"/>
+      <c r="W495" s="4"/>
     </row>
     <row r="496" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W496" s="7"/>
+      <c r="W496" s="4"/>
     </row>
     <row r="497" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W497" s="7"/>
+      <c r="W497" s="4"/>
     </row>
     <row r="498" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W498" s="7"/>
+      <c r="W498" s="4"/>
     </row>
     <row r="499" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W499" s="7"/>
+      <c r="W499" s="4"/>
     </row>
     <row r="500" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W500" s="7"/>
+      <c r="W500" s="4"/>
     </row>
     <row r="501" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W501" s="7"/>
+      <c r="W501" s="4"/>
     </row>
     <row r="502" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W502" s="7"/>
+      <c r="W502" s="4"/>
     </row>
     <row r="503" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W503" s="7"/>
+      <c r="W503" s="4"/>
     </row>
     <row r="504" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W504" s="7"/>
+      <c r="W504" s="4"/>
     </row>
     <row r="505" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W505" s="7"/>
+      <c r="W505" s="4"/>
     </row>
     <row r="506" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W506" s="7"/>
+      <c r="W506" s="4"/>
     </row>
     <row r="507" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W507" s="7"/>
+      <c r="W507" s="4"/>
     </row>
     <row r="508" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W508" s="7"/>
+      <c r="W508" s="4"/>
     </row>
     <row r="509" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W509" s="7"/>
+      <c r="W509" s="4"/>
     </row>
     <row r="510" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W510" s="7"/>
+      <c r="W510" s="4"/>
     </row>
     <row r="511" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W511" s="7"/>
+      <c r="W511" s="4"/>
     </row>
     <row r="512" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W512" s="7"/>
+      <c r="W512" s="4"/>
     </row>
     <row r="513" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W513" s="7"/>
+      <c r="W513" s="4"/>
     </row>
     <row r="514" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W514" s="7"/>
+      <c r="W514" s="4"/>
     </row>
     <row r="515" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W515" s="7"/>
+      <c r="W515" s="4"/>
     </row>
     <row r="516" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W516" s="7"/>
+      <c r="W516" s="4"/>
     </row>
     <row r="517" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W517" s="7"/>
+      <c r="W517" s="4"/>
     </row>
     <row r="518" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W518" s="7"/>
+      <c r="W518" s="4"/>
     </row>
     <row r="519" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W519" s="7"/>
+      <c r="W519" s="4"/>
     </row>
     <row r="520" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W520" s="7"/>
+      <c r="W520" s="4"/>
     </row>
     <row r="521" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W521" s="7"/>
+      <c r="W521" s="4"/>
     </row>
     <row r="522" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W522" s="7"/>
+      <c r="W522" s="4"/>
     </row>
     <row r="523" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W523" s="7"/>
+      <c r="W523" s="4"/>
     </row>
     <row r="524" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W524" s="7"/>
+      <c r="W524" s="4"/>
     </row>
     <row r="525" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W525" s="7"/>
+      <c r="W525" s="4"/>
     </row>
     <row r="526" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W526" s="7"/>
+      <c r="W526" s="4"/>
     </row>
     <row r="527" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W527" s="7"/>
+      <c r="W527" s="4"/>
     </row>
     <row r="528" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W528" s="7"/>
+      <c r="W528" s="4"/>
     </row>
     <row r="529" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W529" s="7"/>
+      <c r="W529" s="4"/>
     </row>
     <row r="530" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W530" s="7"/>
+      <c r="W530" s="4"/>
     </row>
     <row r="531" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W531" s="7"/>
+      <c r="W531" s="4"/>
     </row>
     <row r="532" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W532" s="7"/>
+      <c r="W532" s="4"/>
     </row>
     <row r="533" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W533" s="7"/>
+      <c r="W533" s="4"/>
     </row>
     <row r="534" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W534" s="7"/>
+      <c r="W534" s="4"/>
     </row>
     <row r="535" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W535" s="7"/>
+      <c r="W535" s="4"/>
     </row>
     <row r="536" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W536" s="7"/>
+      <c r="W536" s="4"/>
     </row>
     <row r="537" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W537" s="7"/>
+      <c r="W537" s="4"/>
     </row>
     <row r="538" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W538" s="7"/>
+      <c r="W538" s="4"/>
     </row>
     <row r="539" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W539" s="7"/>
+      <c r="W539" s="4"/>
     </row>
     <row r="540" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W540" s="7"/>
+      <c r="W540" s="4"/>
     </row>
     <row r="541" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W541" s="7"/>
+      <c r="W541" s="4"/>
     </row>
     <row r="542" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W542" s="7"/>
+      <c r="W542" s="4"/>
     </row>
     <row r="543" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W543" s="7"/>
+      <c r="W543" s="4"/>
     </row>
     <row r="544" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W544" s="7"/>
+      <c r="W544" s="4"/>
     </row>
     <row r="545" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W545" s="7"/>
+      <c r="W545" s="4"/>
     </row>
     <row r="546" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W546" s="7"/>
+      <c r="W546" s="4"/>
     </row>
     <row r="547" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W547" s="7"/>
+      <c r="W547" s="4"/>
     </row>
     <row r="548" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W548" s="7"/>
+      <c r="W548" s="4"/>
     </row>
     <row r="549" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W549" s="7"/>
+      <c r="W549" s="4"/>
     </row>
     <row r="550" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W550" s="7"/>
+      <c r="W550" s="4"/>
     </row>
     <row r="551" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W551" s="7"/>
+      <c r="W551" s="4"/>
     </row>
     <row r="552" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W552" s="7"/>
+      <c r="W552" s="4"/>
     </row>
     <row r="553" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W553" s="7"/>
+      <c r="W553" s="4"/>
     </row>
     <row r="554" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W554" s="7"/>
+      <c r="W554" s="4"/>
     </row>
     <row r="555" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W555" s="7"/>
+      <c r="W555" s="4"/>
     </row>
     <row r="556" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W556" s="7"/>
+      <c r="W556" s="4"/>
     </row>
     <row r="557" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W557" s="7"/>
+      <c r="W557" s="4"/>
     </row>
     <row r="558" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W558" s="7"/>
+      <c r="W558" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
